--- a/back-end/public/tenants.xlsx
+++ b/back-end/public/tenants.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\geisimar\Petrvs\back-end\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE79288-3CB2-42A0-879D-68A16820A8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18B8C0-1E07-4912-9C24-CF66832C881D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F84DAE95-C676-4929-A42D-AA0662A4D682}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="350">
   <si>
     <t>AEB</t>
   </si>
@@ -86,9 +87,6 @@
     <t>CEFET-MG</t>
   </si>
   <si>
-    <t>CP II</t>
-  </si>
-  <si>
     <t>CVM</t>
   </si>
   <si>
@@ -182,9 +180,6 @@
     <t>IPHAN</t>
   </si>
   <si>
-    <t>IF BAIANO</t>
-  </si>
-  <si>
     <t>IFC</t>
   </si>
   <si>
@@ -927,13 +922,178 @@
   </si>
   <si>
     <t>Conselho de Controle de Atividades Financeiras</t>
+  </si>
+  <si>
+    <t>aeb.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>anac.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>aneel.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>anm.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ans.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>anatel.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>antaq.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>antt.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>anvisa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ancine.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>anp.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>anpd.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>bcb.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ccpr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cefetrj.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cefetmg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cvm.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cnen.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cnpq.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cgu.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>dnit.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>funag.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fbn.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fcrb.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>capes.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>enap.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ibge.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fundacentro.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>funai.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fiocruz.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unb.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufam.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufcspa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufms.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufpel.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufscar.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufabc.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufac.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unifap.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unipampa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufpi.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>univasf.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fnde.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ibama.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>icmbio.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ipea.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>iphan.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifc.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifba.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifpb.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifal.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cpii.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifbaiano.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>IFBAIANO</t>
+  </si>
+  <si>
+    <t>CPII</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,6 +1134,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1049,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1072,6 +1238,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1409,14 +1578,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CD5A86-2183-423B-979E-F68046DDCD17}">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C148"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="84.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1425,14 +1595,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="9" t="str">
-        <f>SUBSTITUTE(LOWER(A1),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>aeb.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>147</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1440,14 +1609,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="9" t="str">
-        <f t="shared" ref="C2:C65" si="0">SUBSTITUTE(LOWER(A2),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>anac.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>148</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1455,14 +1623,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>aneel.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>149</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>297</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1470,14 +1637,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>anm.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>150</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>298</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1485,14 +1651,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ans.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>151</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1500,14 +1665,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>anatel.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>152</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1515,14 +1679,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>antaq.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>153</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>301</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1530,14 +1693,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>antt.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>154</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,14 +1707,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>anvisa.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>155</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>303</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1560,14 +1721,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ancine.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>156</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>304</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,14 +1735,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>anp.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>157</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1590,14 +1749,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>anpd.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>158</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>306</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1605,14 +1763,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>bcb.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>159</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,14 +1777,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ccpr.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>160</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,14 +1791,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>cefetrj.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>161</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>309</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1650,1998 +1805,2864 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>cefetmg.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>162</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>349</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>cp ii.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>163</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>346</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>cvm.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>164</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>cnen.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>165</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>312</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>cnpq.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>166</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>313</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>cgu.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>167</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>dnit.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>168</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>funag.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>169</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>fbn.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>170</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>317</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>fcrb.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>171</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>capes.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>172</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>enap.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>173</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>320</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ibge.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>174</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>fundacentro.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>175</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>funai.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>176</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>fiocruz.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>177</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>unb.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>178</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ufam.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>179</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ufcspa.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>180</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ufms.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>181</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>328</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ufpel.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>182</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>329</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ufscar.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>183</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ufabc.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>184</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ufac.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>185</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>332</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>unifap.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>186</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>unipampa.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>187</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ufpi.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>188</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C43" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>univasf.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>189</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>fnde.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>190</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>337</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="9" t="str">
-        <f>SUBSTITUTE(LOWER(A45),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>ibama.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>191</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>icmbio.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>192</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ipea.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>193</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>iphan.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>194</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>48</v>
+        <v>348</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C49" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>if baiano.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>195</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifc.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>196</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C51" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifba.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>197</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C52" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifpb.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>198</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifal.treina.pgdpetrvs.gestao.gov.br</v>
+        <v>199</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>345</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C54" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:C65" si="0">SUBSTITUTE(LOWER(A54),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>ifb.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C55" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifmt.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C56" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifmg.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C57" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifpe.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C58" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifro.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C59" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifrr.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C60" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifsc.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C61" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifsp.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C62" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifs.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C63" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifap.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C64" s="9" t="str">
         <f>SUBSTITUTE(LOWER(A64),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>ifam.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C65" s="9" t="str">
         <f t="shared" si="0"/>
         <v>ifes.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C66" s="9" t="str">
         <f t="shared" ref="C66:C80" si="1">SUBSTITUTE(LOWER(A66),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>ifma.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C67" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifnmg.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C68" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifpa.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C69" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifpr.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C70" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifpi.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C71" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifrj.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C72" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifrn.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C73" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifrs.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C74" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifsertaope.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C75" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifsudmg.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C76" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifsulmg.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="1"/>
         <v>ifto.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C78" s="9" t="str">
         <f t="shared" si="1"/>
         <v>iftm.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C79" s="9" t="str">
         <f t="shared" si="1"/>
         <v>iffar.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C80" s="9" t="str">
         <f t="shared" si="1"/>
         <v>iff.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C81" s="9" t="str">
         <f>SUBSTITUTE(LOWER(A81),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>ifgoiano.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C82" s="9" t="str">
         <f t="shared" ref="C82:C99" si="2">SUBSTITUTE(LOWER(A82),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>inpi.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C83" s="9" t="str">
         <f t="shared" si="2"/>
         <v>incra.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C84" s="9" t="str">
         <f t="shared" si="2"/>
         <v>inep.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C85" s="9" t="str">
         <f t="shared" si="2"/>
         <v>inmetro.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C86" s="9" t="str">
         <f t="shared" si="2"/>
         <v>int.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C87" s="9" t="str">
         <f t="shared" si="2"/>
         <v>inss.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C88" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mapa.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C89" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mcti.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C90" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mf.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C91" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mgi.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C92" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mir.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C93" s="9" t="str">
         <f t="shared" si="2"/>
         <v>midr.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C94" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mjsp.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C95" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mps.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C96" s="9" t="str">
         <f t="shared" si="2"/>
         <v>ms.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C97" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mcid.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C98" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mcom.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C99" s="9" t="str">
         <f t="shared" si="2"/>
         <v>mre.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C100" s="9" t="str">
         <f>SUBSTITUTE(LOWER(A100),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>mme.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C101" s="9" t="str">
         <f t="shared" ref="C101:C127" si="3">SUBSTITUTE(LOWER(A101),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>mpor.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C102" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mda.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C103" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mds.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C104" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mdics.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C105" s="9" t="str">
         <f t="shared" si="3"/>
         <v>memp.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C106" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mesp.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C107" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mma.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C108" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mpo.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C109" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mte.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C110" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mtur.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C111" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mpi.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C112" s="9" t="str">
         <f t="shared" si="3"/>
         <v>mt.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C113" s="9" t="str">
         <f t="shared" si="3"/>
         <v>suframa.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C114" s="9" t="str">
         <f t="shared" si="3"/>
         <v>susep.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C115" s="9" t="str">
         <f t="shared" si="3"/>
         <v>sudam.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C116" s="9" t="str">
         <f t="shared" si="3"/>
         <v>sudeco.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C117" s="9" t="str">
         <f t="shared" si="3"/>
         <v>previc.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C118" s="9" t="str">
         <f t="shared" si="3"/>
         <v>unilab.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C119" s="9" t="str">
         <f t="shared" si="3"/>
         <v>uffs.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C120" s="9" t="str">
         <f t="shared" si="3"/>
         <v>unila.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C121" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ufpb.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C122" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ufal.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C123" s="9" t="str">
         <f t="shared" si="3"/>
         <v>unifalmg.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C124" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ufcg.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C125" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ufg.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C126" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ufla.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C127" s="9" t="str">
         <f t="shared" si="3"/>
         <v>ufpe.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C128" s="9" t="str">
         <f>SUBSTITUTE(LOWER(A128),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>unifesp.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C129" s="9" t="str">
         <f t="shared" ref="C129:C147" si="4">SUBSTITUTE(LOWER(A129),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>ufu.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C130" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufdpar.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C131" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufes.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C132" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufnt.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C133" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufob.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C134" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufopa.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C135" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufpr.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C136" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufrb.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C137" s="9" t="str">
         <f t="shared" si="4"/>
         <v>unifesspa.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C138" s="9" t="str">
         <f t="shared" si="4"/>
         <v>uftm.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C139" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufvjm.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C140" s="9" t="str">
         <f t="shared" si="4"/>
         <v>uff.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C141" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufra.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C142" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufrpe.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C143" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufrrj.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C144" s="9" t="str">
         <f t="shared" si="4"/>
         <v>ufersarn.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C145" s="9" t="str">
         <f t="shared" si="4"/>
         <v>utfpr.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C146" s="9" t="str">
         <f t="shared" si="4"/>
         <v>senapen.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C147" s="9" t="str">
         <f t="shared" si="4"/>
         <v>prf.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C148" s="9" t="str">
         <f>SUBSTITUTE(LOWER(A148),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>coaf.treina.pgdpetrvs.gestao.gov.br</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A66344-4A1B-488D-9C88-2625665F6E9A}">
+  <dimension ref="A1:A148"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="e">
+        <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="e">
+        <f t="shared" ref="A2:A65" si="0">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="e">
+        <f t="shared" ref="A3:A66" si="1">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="e">
+        <f t="shared" ref="A4:A67" si="2">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="e">
+        <f t="shared" ref="A5:A68" si="3">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="e">
+        <f t="shared" ref="A6:A69" si="4">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="e">
+        <f t="shared" ref="A7:A70" si="5">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="e">
+        <f t="shared" ref="A8:A71" si="6">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="e">
+        <f t="shared" ref="A9:A72" si="7">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="e">
+        <f t="shared" ref="A10:A73" si="8">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="e">
+        <f t="shared" ref="A11:A74" si="9">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="e">
+        <f t="shared" ref="A12:A75" si="10">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="e">
+        <f t="shared" ref="A13:A76" si="11">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="e">
+        <f t="shared" ref="A14:A77" si="12">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="e">
+        <f t="shared" ref="A15:A78" si="13">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="e">
+        <f t="shared" ref="A16:A79" si="14">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="e">
+        <f t="shared" ref="A17:A80" si="15">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="e">
+        <f t="shared" ref="A18:A81" si="16">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="e">
+        <f t="shared" ref="A19:A82" si="17">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="e">
+        <f t="shared" ref="A20:A83" si="18">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="e">
+        <f t="shared" ref="A21:A84" si="19">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="e">
+        <f t="shared" ref="A22:A85" si="20">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="e">
+        <f t="shared" ref="A23:A86" si="21">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="e">
+        <f t="shared" ref="A24:A87" si="22">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="e">
+        <f t="shared" ref="A25:A88" si="23">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="e">
+        <f t="shared" ref="A26:A89" si="24">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="e">
+        <f t="shared" ref="A27:A90" si="25">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="e">
+        <f t="shared" ref="A28:A91" si="26">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="e">
+        <f t="shared" ref="A29:A92" si="27">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="e">
+        <f t="shared" ref="A30:A93" si="28">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="e">
+        <f t="shared" ref="A31:A94" si="29">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="e">
+        <f t="shared" ref="A32:A95" si="30">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="e">
+        <f t="shared" ref="A33:A96" si="31">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="e">
+        <f t="shared" ref="A34:A97" si="32">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="e">
+        <f t="shared" ref="A35:A98" si="33">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="e">
+        <f t="shared" ref="A36:A99" si="34">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="e">
+        <f t="shared" ref="A37:A100" si="35">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="e">
+        <f t="shared" ref="A38:A101" si="36">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="e">
+        <f t="shared" ref="A39:A102" si="37">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="e">
+        <f t="shared" ref="A40:A103" si="38">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="e">
+        <f t="shared" ref="A41:A104" si="39">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="e">
+        <f t="shared" ref="A42:A105" si="40">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="e">
+        <f t="shared" ref="A43:A106" si="41">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="e">
+        <f t="shared" ref="A44:A107" si="42">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="e">
+        <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="e">
+        <f t="shared" ref="A46:A109" si="43">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="e">
+        <f t="shared" ref="A47:A110" si="44">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="e">
+        <f t="shared" ref="A48:A111" si="45">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="e">
+        <f t="shared" ref="A49:A112" si="46">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="e">
+        <f t="shared" ref="A50:A113" si="47">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="e">
+        <f t="shared" ref="A51:A114" si="48">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="e">
+        <f t="shared" ref="A52:A115" si="49">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="e">
+        <f t="shared" ref="A53:A116" si="50">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="e">
+        <f t="shared" ref="A54:A117" si="51">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="e">
+        <f t="shared" ref="A55:A118" si="52">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="e">
+        <f t="shared" ref="A56:A119" si="53">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="e">
+        <f t="shared" ref="A57:A120" si="54">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="e">
+        <f t="shared" ref="A58:A121" si="55">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="e">
+        <f t="shared" ref="A59:A122" si="56">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="e">
+        <f t="shared" ref="A60:A123" si="57">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="e">
+        <f t="shared" ref="A61:A124" si="58">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="e">
+        <f t="shared" ref="A62:A125" si="59">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="e">
+        <f t="shared" ref="A63:A126" si="60">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="e">
+        <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="e">
+        <f t="shared" ref="A65:A128" si="61">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="e">
+        <f t="shared" ref="A66:A80" si="62">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="e">
+        <f t="shared" ref="A67:A81" si="63">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="e">
+        <f t="shared" ref="A68:A82" si="64">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="e">
+        <f t="shared" ref="A69:A83" si="65">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="e">
+        <f t="shared" ref="A70:A84" si="66">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="e">
+        <f t="shared" ref="A71:A85" si="67">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="e">
+        <f t="shared" ref="A72:A86" si="68">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="e">
+        <f t="shared" ref="A73:A87" si="69">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="e">
+        <f t="shared" ref="A74:A88" si="70">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="e">
+        <f t="shared" ref="A75:A89" si="71">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="e">
+        <f t="shared" ref="A76:A90" si="72">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="e">
+        <f t="shared" ref="A77:A91" si="73">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="e">
+        <f t="shared" ref="A78:A92" si="74">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="e">
+        <f t="shared" ref="A79:A93" si="75">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="e">
+        <f t="shared" ref="A80:A94" si="76">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="e">
+        <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="e">
+        <f t="shared" ref="A82:A99" si="77">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="e">
+        <f t="shared" ref="A83:A100" si="78">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="e">
+        <f t="shared" ref="A84:A101" si="79">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="e">
+        <f t="shared" ref="A85:A102" si="80">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="e">
+        <f t="shared" ref="A86:A103" si="81">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="e">
+        <f t="shared" ref="A87:A104" si="82">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="e">
+        <f t="shared" ref="A88:A105" si="83">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="e">
+        <f t="shared" ref="A89:A106" si="84">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="e">
+        <f t="shared" ref="A90:A107" si="85">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="e">
+        <f t="shared" ref="A91:A108" si="86">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="e">
+        <f t="shared" ref="A92:A109" si="87">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="e">
+        <f t="shared" ref="A93:A110" si="88">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="e">
+        <f t="shared" ref="A94:A111" si="89">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="e">
+        <f t="shared" ref="A95:A112" si="90">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="e">
+        <f t="shared" ref="A96:A113" si="91">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="e">
+        <f t="shared" ref="A97:A114" si="92">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="e">
+        <f t="shared" ref="A98:A115" si="93">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="e">
+        <f t="shared" ref="A99:A116" si="94">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="e">
+        <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="e">
+        <f t="shared" ref="A101:A127" si="95">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="e">
+        <f t="shared" ref="A102:A128" si="96">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="e">
+        <f t="shared" ref="A103:A129" si="97">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="e">
+        <f t="shared" ref="A104:A130" si="98">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="e">
+        <f t="shared" ref="A105:A131" si="99">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="e">
+        <f t="shared" ref="A106:A132" si="100">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="e">
+        <f t="shared" ref="A107:A133" si="101">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="e">
+        <f t="shared" ref="A108:A134" si="102">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="e">
+        <f t="shared" ref="A109:A135" si="103">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="e">
+        <f t="shared" ref="A110:A136" si="104">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="e">
+        <f t="shared" ref="A111:A137" si="105">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="e">
+        <f t="shared" ref="A112:A138" si="106">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="e">
+        <f t="shared" ref="A113:A139" si="107">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="e">
+        <f t="shared" ref="A114:A140" si="108">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="e">
+        <f t="shared" ref="A115:A141" si="109">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="e">
+        <f t="shared" ref="A116:A142" si="110">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="e">
+        <f t="shared" ref="A117:A143" si="111">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="e">
+        <f t="shared" ref="A118:A144" si="112">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="e">
+        <f t="shared" ref="A119:A145" si="113">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="e">
+        <f t="shared" ref="A120:A146" si="114">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="e">
+        <f t="shared" ref="A121:A147" si="115">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="e">
+        <f t="shared" ref="A122:A148" si="116">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="e">
+        <f t="shared" ref="A123:A148" si="117">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="e">
+        <f t="shared" ref="A124:A148" si="118">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="e">
+        <f t="shared" ref="A125:A148" si="119">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="e">
+        <f t="shared" ref="A126:A148" si="120">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="e">
+        <f t="shared" ref="A127:A148" si="121">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="e">
+        <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="e">
+        <f t="shared" ref="A129:A147" si="122">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="e">
+        <f t="shared" ref="A130:A148" si="123">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="e">
+        <f t="shared" ref="A131:A148" si="124">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="e">
+        <f t="shared" ref="A132:A148" si="125">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="e">
+        <f t="shared" ref="A133:A148" si="126">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="e">
+        <f t="shared" ref="A134:A148" si="127">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="e">
+        <f t="shared" ref="A135:A148" si="128">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="e">
+        <f t="shared" ref="A136:A148" si="129">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="e">
+        <f t="shared" ref="A137:A148" si="130">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="e">
+        <f t="shared" ref="A138:A148" si="131">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="e">
+        <f t="shared" ref="A139:A148" si="132">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="e">
+        <f t="shared" ref="A140:A148" si="133">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="e">
+        <f t="shared" ref="A141:A148" si="134">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="e">
+        <f t="shared" ref="A142:A148" si="135">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="e">
+        <f t="shared" ref="A143:A148" si="136">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="e">
+        <f t="shared" ref="A144:A148" si="137">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="e">
+        <f t="shared" ref="A145:A148" si="138">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="e">
+        <f t="shared" ref="A146:A148" si="139">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="e">
+        <f t="shared" ref="A147:A148" si="140">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="e">
+        <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/back-end/public/tenants.xlsx
+++ b/back-end/public/tenants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\geisimar\Petrvs\back-end\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18B8C0-1E07-4912-9C24-CF66832C881D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730E9CA-6A5B-47A6-912B-1507C2355CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F84DAE95-C676-4929-A42D-AA0662A4D682}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="445">
   <si>
     <t>AEB</t>
   </si>
@@ -1087,6 +1087,291 @@
   </si>
   <si>
     <t>CPII</t>
+  </si>
+  <si>
+    <t>ifb.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifmt.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifmg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifpe.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifro.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifrr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifsc.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifsp.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifs.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifap.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifam.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifes.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifma.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifnmg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifpa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifpr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifpi.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifrj.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifrn.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifrs.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifsertaope.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifsudmg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifsulmg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifto.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>iftm.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>iffar.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>iff.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifgoiano.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>inpi.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>incra.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>inep.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>inmetro.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>int.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>inss.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mapa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mcti.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mf.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mgi.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mir.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>midr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mjsp.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mps.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ms.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mcid.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mcom.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mre.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mme.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mpor.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mda.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mds.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mdics.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>memp.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mesp.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mma.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mpo.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mte.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mtur.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mpi.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mt.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>suframa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>susep.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>sudam.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>sudeco.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>previc.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unilab.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>uffs.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unila.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufpb.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufal.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unifalmg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufcg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufla.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufpe.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unifesp.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufu.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufdpar.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufes.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufnt.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufob.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufopa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufpr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufrb.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unifesspa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>uftm.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufvjm.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>uff.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufra.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufrpe.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufrrj.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufersarn.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>utfpr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>senapen.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>prf.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>coaf.treina.pgdpetrvs.gestao.gov.br</t>
   </si>
 </sst>
 </file>
@@ -1578,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CD5A86-2183-423B-979E-F68046DDCD17}">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,7 +2085,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1982,7 +2267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -2150,7 +2435,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -2339,9 +2624,8 @@
       <c r="B54" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C54" s="9" t="str">
-        <f t="shared" ref="C2:C65" si="0">SUBSTITUTE(LOWER(A54),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>ifb.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C54" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>146</v>
@@ -2354,9 +2638,8 @@
       <c r="B55" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C55" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifmt.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C55" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>146</v>
@@ -2369,9 +2652,8 @@
       <c r="B56" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifmg.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C56" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>146</v>
@@ -2384,9 +2666,8 @@
       <c r="B57" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="C57" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifpe.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C57" s="10" t="s">
+        <v>353</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>146</v>
@@ -2399,9 +2680,8 @@
       <c r="B58" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C58" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifro.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C58" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>146</v>
@@ -2414,9 +2694,8 @@
       <c r="B59" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifrr.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C59" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>146</v>
@@ -2429,9 +2708,8 @@
       <c r="B60" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifsc.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C60" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>146</v>
@@ -2444,9 +2722,8 @@
       <c r="B61" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C61" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifsp.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C61" s="10" t="s">
+        <v>357</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>146</v>
@@ -2459,9 +2736,8 @@
       <c r="B62" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C62" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifs.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C62" s="10" t="s">
+        <v>358</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>146</v>
@@ -2474,9 +2750,8 @@
       <c r="B63" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C63" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifap.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C63" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>146</v>
@@ -2489,9 +2764,8 @@
       <c r="B64" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C64" s="9" t="str">
-        <f>SUBSTITUTE(LOWER(A64),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>ifam.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C64" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>146</v>
@@ -2504,9 +2778,8 @@
       <c r="B65" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ifes.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C65" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>146</v>
@@ -2519,9 +2792,8 @@
       <c r="B66" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C66" s="9" t="str">
-        <f t="shared" ref="C66:C80" si="1">SUBSTITUTE(LOWER(A66),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>ifma.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C66" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>146</v>
@@ -2534,9 +2806,8 @@
       <c r="B67" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C67" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifnmg.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C67" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>146</v>
@@ -2549,9 +2820,8 @@
       <c r="B68" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifpa.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C68" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>146</v>
@@ -2564,9 +2834,8 @@
       <c r="B69" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifpr.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C69" s="10" t="s">
+        <v>365</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>146</v>
@@ -2579,9 +2848,8 @@
       <c r="B70" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C70" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifpi.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C70" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>146</v>
@@ -2594,9 +2862,8 @@
       <c r="B71" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C71" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifrj.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C71" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>146</v>
@@ -2609,9 +2876,8 @@
       <c r="B72" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C72" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifrn.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C72" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>146</v>
@@ -2624,24 +2890,22 @@
       <c r="B73" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C73" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifrs.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C73" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C74" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifsertaope.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C74" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>146</v>
@@ -2654,9 +2918,8 @@
       <c r="B75" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifsudmg.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C75" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>146</v>
@@ -2669,9 +2932,8 @@
       <c r="B76" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifsulmg.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C76" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>146</v>
@@ -2684,9 +2946,8 @@
       <c r="B77" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>ifto.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C77" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>146</v>
@@ -2699,9 +2960,8 @@
       <c r="B78" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>iftm.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C78" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>146</v>
@@ -2714,9 +2974,8 @@
       <c r="B79" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C79" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>iffar.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C79" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>146</v>
@@ -2729,24 +2988,22 @@
       <c r="B80" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>iff.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C80" s="10" t="s">
+        <v>376</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="C81" s="9" t="str">
-        <f>SUBSTITUTE(LOWER(A81),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>ifgoiano.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C81" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>146</v>
@@ -2759,9 +3016,8 @@
       <c r="B82" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="9" t="str">
-        <f t="shared" ref="C82:C99" si="2">SUBSTITUTE(LOWER(A82),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>inpi.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C82" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>146</v>
@@ -2774,9 +3030,8 @@
       <c r="B83" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C83" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>incra.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C83" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>146</v>
@@ -2789,24 +3044,22 @@
       <c r="B84" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C84" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>inep.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C84" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C85" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>inmetro.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C85" s="10" t="s">
+        <v>381</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>146</v>
@@ -2819,9 +3072,8 @@
       <c r="B86" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C86" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>int.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C86" s="10" t="s">
+        <v>382</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>146</v>
@@ -2834,9 +3086,8 @@
       <c r="B87" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C87" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>inss.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C87" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>146</v>
@@ -2849,9 +3100,8 @@
       <c r="B88" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C88" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mapa.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C88" s="10" t="s">
+        <v>384</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>146</v>
@@ -2864,9 +3114,8 @@
       <c r="B89" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C89" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mcti.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C89" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>146</v>
@@ -2879,9 +3128,8 @@
       <c r="B90" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C90" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mf.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C90" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>146</v>
@@ -2894,9 +3142,8 @@
       <c r="B91" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C91" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mgi.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C91" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>146</v>
@@ -2909,9 +3156,8 @@
       <c r="B92" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C92" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mir.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C92" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>146</v>
@@ -2924,9 +3170,8 @@
       <c r="B93" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C93" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>midr.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C93" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>146</v>
@@ -2939,9 +3184,8 @@
       <c r="B94" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mjsp.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C94" s="10" t="s">
+        <v>390</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>146</v>
@@ -2954,9 +3198,8 @@
       <c r="B95" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C95" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mps.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C95" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>146</v>
@@ -2969,9 +3212,8 @@
       <c r="B96" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C96" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>ms.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C96" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>146</v>
@@ -2984,9 +3226,8 @@
       <c r="B97" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C97" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mcid.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C97" s="10" t="s">
+        <v>393</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>146</v>
@@ -2999,9 +3240,8 @@
       <c r="B98" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C98" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mcom.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C98" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>146</v>
@@ -3014,9 +3254,8 @@
       <c r="B99" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C99" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>mre.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C99" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>146</v>
@@ -3029,9 +3268,8 @@
       <c r="B100" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C100" s="9" t="str">
-        <f>SUBSTITUTE(LOWER(A100),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>mme.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C100" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>146</v>
@@ -3044,9 +3282,8 @@
       <c r="B101" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C101" s="9" t="str">
-        <f t="shared" ref="C101:C127" si="3">SUBSTITUTE(LOWER(A101),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>mpor.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C101" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>146</v>
@@ -3059,9 +3296,8 @@
       <c r="B102" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C102" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mda.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C102" s="10" t="s">
+        <v>398</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>146</v>
@@ -3074,9 +3310,8 @@
       <c r="B103" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C103" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mds.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C103" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>146</v>
@@ -3089,9 +3324,8 @@
       <c r="B104" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C104" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mdics.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C104" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>146</v>
@@ -3104,9 +3338,8 @@
       <c r="B105" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C105" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>memp.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C105" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>146</v>
@@ -3119,9 +3352,8 @@
       <c r="B106" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C106" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mesp.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C106" s="10" t="s">
+        <v>402</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>146</v>
@@ -3134,9 +3366,8 @@
       <c r="B107" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C107" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mma.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C107" s="10" t="s">
+        <v>403</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>146</v>
@@ -3149,9 +3380,8 @@
       <c r="B108" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C108" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mpo.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C108" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>146</v>
@@ -3164,9 +3394,8 @@
       <c r="B109" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C109" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mte.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C109" s="10" t="s">
+        <v>405</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>146</v>
@@ -3179,9 +3408,8 @@
       <c r="B110" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C110" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mtur.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C110" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>146</v>
@@ -3194,9 +3422,8 @@
       <c r="B111" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C111" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mpi.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C111" s="10" t="s">
+        <v>407</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>146</v>
@@ -3209,24 +3436,22 @@
       <c r="B112" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C112" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>mt.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C112" s="10" t="s">
+        <v>408</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C113" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>suframa.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C113" s="10" t="s">
+        <v>409</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>146</v>
@@ -3239,9 +3464,8 @@
       <c r="B114" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C114" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>susep.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C114" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>146</v>
@@ -3254,9 +3478,8 @@
       <c r="B115" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="C115" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>sudam.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C115" s="10" t="s">
+        <v>411</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>146</v>
@@ -3269,9 +3492,8 @@
       <c r="B116" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C116" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>sudeco.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C116" s="10" t="s">
+        <v>412</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>146</v>
@@ -3284,9 +3506,8 @@
       <c r="B117" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C117" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>previc.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C117" s="10" t="s">
+        <v>413</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>146</v>
@@ -3299,9 +3520,8 @@
       <c r="B118" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C118" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>unilab.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C118" s="10" t="s">
+        <v>414</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>146</v>
@@ -3314,9 +3534,8 @@
       <c r="B119" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C119" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>uffs.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C119" s="10" t="s">
+        <v>415</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>146</v>
@@ -3329,9 +3548,8 @@
       <c r="B120" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C120" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>unila.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C120" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>146</v>
@@ -3344,9 +3562,8 @@
       <c r="B121" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C121" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>ufpb.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C121" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>146</v>
@@ -3359,24 +3576,22 @@
       <c r="B122" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C122" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>ufal.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C122" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C123" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>unifalmg.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C123" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>146</v>
@@ -3389,9 +3604,8 @@
       <c r="B124" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C124" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>ufcg.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C124" s="10" t="s">
+        <v>420</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>146</v>
@@ -3404,9 +3618,8 @@
       <c r="B125" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C125" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>ufg.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C125" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>146</v>
@@ -3419,9 +3632,8 @@
       <c r="B126" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C126" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>ufla.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C126" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>146</v>
@@ -3434,9 +3646,8 @@
       <c r="B127" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C127" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>ufpe.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C127" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>146</v>
@@ -3449,9 +3660,8 @@
       <c r="B128" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C128" s="9" t="str">
-        <f>SUBSTITUTE(LOWER(A128),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>unifesp.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C128" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>146</v>
@@ -3464,9 +3674,8 @@
       <c r="B129" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C129" s="9" t="str">
-        <f t="shared" ref="C129:C147" si="4">SUBSTITUTE(LOWER(A129),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>ufu.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C129" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>146</v>
@@ -3479,9 +3688,8 @@
       <c r="B130" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C130" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufdpar.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C130" s="10" t="s">
+        <v>426</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>146</v>
@@ -3494,9 +3702,8 @@
       <c r="B131" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C131" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufes.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C131" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>146</v>
@@ -3509,9 +3716,8 @@
       <c r="B132" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C132" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufnt.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C132" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>146</v>
@@ -3524,9 +3730,8 @@
       <c r="B133" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C133" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufob.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C133" s="10" t="s">
+        <v>429</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>146</v>
@@ -3539,9 +3744,8 @@
       <c r="B134" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C134" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufopa.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C134" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>146</v>
@@ -3554,9 +3758,8 @@
       <c r="B135" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C135" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufpr.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C135" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>146</v>
@@ -3569,24 +3772,22 @@
       <c r="B136" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C136" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufrb.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C136" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>134</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C137" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>unifesspa.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C137" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>146</v>
@@ -3599,9 +3800,8 @@
       <c r="B138" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C138" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>uftm.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C138" s="10" t="s">
+        <v>434</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>146</v>
@@ -3614,9 +3814,8 @@
       <c r="B139" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C139" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufvjm.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C139" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>146</v>
@@ -3629,9 +3828,8 @@
       <c r="B140" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C140" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>uff.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C140" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>146</v>
@@ -3644,9 +3842,8 @@
       <c r="B141" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C141" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufra.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C141" s="10" t="s">
+        <v>437</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>146</v>
@@ -3659,9 +3856,8 @@
       <c r="B142" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C142" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufrpe.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C142" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>146</v>
@@ -3674,24 +3870,22 @@
       <c r="B143" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C143" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufrrj.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C143" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C144" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ufersarn.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C144" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>146</v>
@@ -3704,9 +3898,8 @@
       <c r="B145" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C145" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>utfpr.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C145" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>146</v>
@@ -3719,9 +3912,8 @@
       <c r="B146" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C146" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>senapen.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C146" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>146</v>
@@ -3734,9 +3926,8 @@
       <c r="B147" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>prf.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C147" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>146</v>
@@ -3749,9 +3940,8 @@
       <c r="B148" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C148" s="9" t="str">
-        <f>SUBSTITUTE(LOWER(A148),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
-        <v>coaf.treina.pgdpetrvs.gestao.gov.br</v>
+      <c r="C148" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>146</v>
@@ -3782,259 +3972,259 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="e">
-        <f t="shared" ref="A2:A65" si="0">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A2" si="0">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="e">
-        <f t="shared" ref="A3:A66" si="1">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A3" si="1">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="e">
-        <f t="shared" ref="A4:A67" si="2">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A4" si="2">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="e">
-        <f t="shared" ref="A5:A68" si="3">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A5" si="3">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="e">
-        <f t="shared" ref="A6:A69" si="4">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A6" si="4">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="e">
-        <f t="shared" ref="A7:A70" si="5">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A7" si="5">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="e">
-        <f t="shared" ref="A8:A71" si="6">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A8" si="6">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="e">
-        <f t="shared" ref="A9:A72" si="7">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A9" si="7">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="e">
-        <f t="shared" ref="A10:A73" si="8">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A10" si="8">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="e">
-        <f t="shared" ref="A11:A74" si="9">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A11" si="9">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="e">
-        <f t="shared" ref="A12:A75" si="10">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A12" si="10">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="e">
-        <f t="shared" ref="A13:A76" si="11">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A13" si="11">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="e">
-        <f t="shared" ref="A14:A77" si="12">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A14" si="12">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="e">
-        <f t="shared" ref="A15:A78" si="13">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A15" si="13">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="e">
-        <f t="shared" ref="A16:A79" si="14">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A16" si="14">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="e">
-        <f t="shared" ref="A17:A80" si="15">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A17" si="15">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="e">
-        <f t="shared" ref="A18:A81" si="16">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A18" si="16">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="e">
-        <f t="shared" ref="A19:A82" si="17">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A19" si="17">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="e">
-        <f t="shared" ref="A20:A83" si="18">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A20" si="18">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="e">
-        <f t="shared" ref="A21:A84" si="19">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A21" si="19">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="e">
-        <f t="shared" ref="A22:A85" si="20">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A22" si="20">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="e">
-        <f t="shared" ref="A23:A86" si="21">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A23" si="21">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="e">
-        <f t="shared" ref="A24:A87" si="22">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A24" si="22">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="e">
-        <f t="shared" ref="A25:A88" si="23">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A25" si="23">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="e">
-        <f t="shared" ref="A26:A89" si="24">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A26" si="24">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="e">
-        <f t="shared" ref="A27:A90" si="25">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A27" si="25">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="e">
-        <f t="shared" ref="A28:A91" si="26">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A28" si="26">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="e">
-        <f t="shared" ref="A29:A92" si="27">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A29" si="27">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="e">
-        <f t="shared" ref="A30:A93" si="28">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A30" si="28">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="e">
-        <f t="shared" ref="A31:A94" si="29">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A31" si="29">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="e">
-        <f t="shared" ref="A32:A95" si="30">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A32" si="30">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="e">
-        <f t="shared" ref="A33:A96" si="31">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A33" si="31">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="e">
-        <f t="shared" ref="A34:A97" si="32">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A34" si="32">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="e">
-        <f t="shared" ref="A35:A98" si="33">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A35" si="33">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="e">
-        <f t="shared" ref="A36:A99" si="34">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A36" si="34">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="e">
-        <f t="shared" ref="A37:A100" si="35">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A37" si="35">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="e">
-        <f t="shared" ref="A38:A101" si="36">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A38" si="36">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="e">
-        <f t="shared" ref="A39:A102" si="37">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A39" si="37">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="e">
-        <f t="shared" ref="A40:A103" si="38">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A40" si="38">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="e">
-        <f t="shared" ref="A41:A104" si="39">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A41" si="39">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="e">
-        <f t="shared" ref="A42:A105" si="40">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A42" si="40">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="e">
-        <f t="shared" ref="A43:A106" si="41">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A43" si="41">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="e">
-        <f t="shared" ref="A44:A107" si="42">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A44" si="42">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4046,109 +4236,109 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="e">
-        <f t="shared" ref="A46:A109" si="43">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A46" si="43">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="e">
-        <f t="shared" ref="A47:A110" si="44">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A47" si="44">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="e">
-        <f t="shared" ref="A48:A111" si="45">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A48" si="45">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="e">
-        <f t="shared" ref="A49:A112" si="46">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A49" si="46">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="e">
-        <f t="shared" ref="A50:A113" si="47">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A50" si="47">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="e">
-        <f t="shared" ref="A51:A114" si="48">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A51" si="48">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="e">
-        <f t="shared" ref="A52:A115" si="49">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A52" si="49">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="e">
-        <f t="shared" ref="A53:A116" si="50">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A53" si="50">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="e">
-        <f t="shared" ref="A54:A117" si="51">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A54" si="51">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="e">
-        <f t="shared" ref="A55:A118" si="52">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A55" si="52">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="e">
-        <f t="shared" ref="A56:A119" si="53">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A56" si="53">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="e">
-        <f t="shared" ref="A57:A120" si="54">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A57" si="54">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="e">
-        <f t="shared" ref="A58:A121" si="55">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A58" si="55">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="e">
-        <f t="shared" ref="A59:A122" si="56">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A59" si="56">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="e">
-        <f t="shared" ref="A60:A123" si="57">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A60" si="57">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="e">
-        <f t="shared" ref="A61:A124" si="58">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A61" si="58">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="e">
-        <f t="shared" ref="A62:A125" si="59">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A62" si="59">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="e">
-        <f t="shared" ref="A63:A126" si="60">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A63" si="60">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4160,97 +4350,97 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="e">
-        <f t="shared" ref="A65:A128" si="61">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A65" si="61">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="e">
-        <f t="shared" ref="A66:A80" si="62">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A66" si="62">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="e">
-        <f t="shared" ref="A67:A81" si="63">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A67" si="63">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="e">
-        <f t="shared" ref="A68:A82" si="64">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A68" si="64">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="e">
-        <f t="shared" ref="A69:A83" si="65">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A69" si="65">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="e">
-        <f t="shared" ref="A70:A84" si="66">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A70" si="66">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="e">
-        <f t="shared" ref="A71:A85" si="67">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A71" si="67">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="e">
-        <f t="shared" ref="A72:A86" si="68">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A72" si="68">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="e">
-        <f t="shared" ref="A73:A87" si="69">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A73" si="69">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="e">
-        <f t="shared" ref="A74:A88" si="70">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A74" si="70">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="e">
-        <f t="shared" ref="A75:A89" si="71">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A75" si="71">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="e">
-        <f t="shared" ref="A76:A90" si="72">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A76" si="72">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="e">
-        <f t="shared" ref="A77:A91" si="73">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A77" si="73">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="e">
-        <f t="shared" ref="A78:A92" si="74">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A78" si="74">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="e">
-        <f t="shared" ref="A79:A93" si="75">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A79" si="75">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="e">
-        <f t="shared" ref="A80:A94" si="76">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A80" si="76">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4262,109 +4452,109 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="e">
-        <f t="shared" ref="A82:A99" si="77">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A82" si="77">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="e">
-        <f t="shared" ref="A83:A100" si="78">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A83" si="78">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="e">
-        <f t="shared" ref="A84:A101" si="79">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A84" si="79">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="e">
-        <f t="shared" ref="A85:A102" si="80">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A85" si="80">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="e">
-        <f t="shared" ref="A86:A103" si="81">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A86" si="81">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="e">
-        <f t="shared" ref="A87:A104" si="82">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A87" si="82">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="e">
-        <f t="shared" ref="A88:A105" si="83">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A88" si="83">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="e">
-        <f t="shared" ref="A89:A106" si="84">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A89" si="84">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="e">
-        <f t="shared" ref="A90:A107" si="85">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A90" si="85">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="e">
-        <f t="shared" ref="A91:A108" si="86">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A91" si="86">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="e">
-        <f t="shared" ref="A92:A109" si="87">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A92" si="87">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="e">
-        <f t="shared" ref="A93:A110" si="88">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A93" si="88">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="e">
-        <f t="shared" ref="A94:A111" si="89">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A94" si="89">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="e">
-        <f t="shared" ref="A95:A112" si="90">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A95" si="90">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="e">
-        <f t="shared" ref="A96:A113" si="91">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A96" si="91">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="e">
-        <f t="shared" ref="A97:A114" si="92">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A97" si="92">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="e">
-        <f t="shared" ref="A98:A115" si="93">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A98" si="93">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="e">
-        <f t="shared" ref="A99:A116" si="94">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A99" si="94">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4376,163 +4566,163 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="e">
-        <f t="shared" ref="A101:A127" si="95">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A101" si="95">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="e">
-        <f t="shared" ref="A102:A128" si="96">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A102" si="96">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="e">
-        <f t="shared" ref="A103:A129" si="97">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A103" si="97">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="e">
-        <f t="shared" ref="A104:A130" si="98">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A104" si="98">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="e">
-        <f t="shared" ref="A105:A131" si="99">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A105" si="99">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="e">
-        <f t="shared" ref="A106:A132" si="100">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A106" si="100">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="e">
-        <f t="shared" ref="A107:A133" si="101">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A107" si="101">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="e">
-        <f t="shared" ref="A108:A134" si="102">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A108" si="102">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="e">
-        <f t="shared" ref="A109:A135" si="103">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A109" si="103">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="e">
-        <f t="shared" ref="A110:A136" si="104">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A110" si="104">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="e">
-        <f t="shared" ref="A111:A137" si="105">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A111" si="105">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="e">
-        <f t="shared" ref="A112:A138" si="106">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A112" si="106">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="e">
-        <f t="shared" ref="A113:A139" si="107">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A113" si="107">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="e">
-        <f t="shared" ref="A114:A140" si="108">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A114" si="108">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="e">
-        <f t="shared" ref="A115:A141" si="109">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A115" si="109">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="e">
-        <f t="shared" ref="A116:A142" si="110">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A116" si="110">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="e">
-        <f t="shared" ref="A117:A143" si="111">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A117" si="111">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="e">
-        <f t="shared" ref="A118:A144" si="112">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A118" si="112">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="e">
-        <f t="shared" ref="A119:A145" si="113">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A119" si="113">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="e">
-        <f t="shared" ref="A120:A146" si="114">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A120" si="114">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="e">
-        <f t="shared" ref="A121:A147" si="115">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A121" si="115">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="e">
-        <f t="shared" ref="A122:A148" si="116">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A122" si="116">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="e">
-        <f t="shared" ref="A123:A148" si="117">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A123" si="117">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="e">
-        <f t="shared" ref="A124:A148" si="118">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A124" si="118">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="e">
-        <f t="shared" ref="A125:A148" si="119">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A125" si="119">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="e">
-        <f t="shared" ref="A126:A148" si="120">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A126" si="120">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="e">
-        <f t="shared" ref="A127:A148" si="121">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A127" si="121">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -4544,115 +4734,115 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="e">
-        <f t="shared" ref="A129:A147" si="122">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A129" si="122">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="e">
-        <f t="shared" ref="A130:A148" si="123">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A130" si="123">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="e">
-        <f t="shared" ref="A131:A148" si="124">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A131" si="124">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="e">
-        <f t="shared" ref="A132:A148" si="125">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A132" si="125">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="e">
-        <f t="shared" ref="A133:A148" si="126">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A133" si="126">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="e">
-        <f t="shared" ref="A134:A148" si="127">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A134" si="127">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="e">
-        <f t="shared" ref="A135:A148" si="128">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A135" si="128">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="e">
-        <f t="shared" ref="A136:A148" si="129">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A136" si="129">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="e">
-        <f t="shared" ref="A137:A148" si="130">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A137" si="130">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="e">
-        <f t="shared" ref="A138:A148" si="131">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A138" si="131">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="e">
-        <f t="shared" ref="A139:A148" si="132">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A139" si="132">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="e">
-        <f t="shared" ref="A140:A148" si="133">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A140" si="133">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="e">
-        <f t="shared" ref="A141:A148" si="134">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A141" si="134">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="e">
-        <f t="shared" ref="A142:A148" si="135">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A142" si="135">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="e">
-        <f t="shared" ref="A143:A148" si="136">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A143" si="136">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="e">
-        <f t="shared" ref="A144:A148" si="137">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A144" si="137">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="e">
-        <f t="shared" ref="A145:A148" si="138">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A145" si="138">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="e">
-        <f t="shared" ref="A146:A148" si="139">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A146" si="139">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="e">
-        <f t="shared" ref="A147:A148" si="140">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
+        <f t="shared" ref="A147" si="140">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>

--- a/back-end/public/tenants.xlsx
+++ b/back-end/public/tenants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\geisimar\Petrvs\back-end\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730E9CA-6A5B-47A6-912B-1507C2355CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB686BE-2CA0-4FAB-9CA2-B1A3DD2AFEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F84DAE95-C676-4929-A42D-AA0662A4D682}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="628">
   <si>
     <t>AEB</t>
   </si>
@@ -1083,12 +1083,6 @@
     <t>ifbaiano.treina.pgdpetrvs.gestao.gov.br</t>
   </si>
   <si>
-    <t>IFBAIANO</t>
-  </si>
-  <si>
-    <t>CPII</t>
-  </si>
-  <si>
     <t>ifb.treina.pgdpetrvs.gestao.gov.br</t>
   </si>
   <si>
@@ -1372,13 +1366,568 @@
   </si>
   <si>
     <t>coaf.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>AGU</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>ANSN</t>
+  </si>
+  <si>
+    <t>CCCPCM</t>
+  </si>
+  <si>
+    <t>CFIAE</t>
+  </si>
+  <si>
+    <t>CP II</t>
+  </si>
+  <si>
+    <t>CADE</t>
+  </si>
+  <si>
+    <t>DNOCS</t>
+  </si>
+  <si>
+    <t>FCP</t>
+  </si>
+  <si>
+    <t>FHE</t>
+  </si>
+  <si>
+    <t>FUNDAJ</t>
+  </si>
+  <si>
+    <t>FUNARTE</t>
+  </si>
+  <si>
+    <t>FUNASA</t>
+  </si>
+  <si>
+    <t>FOSORIO</t>
+  </si>
+  <si>
+    <t>UFGD</t>
+  </si>
+  <si>
+    <t>UFMT</t>
+  </si>
+  <si>
+    <t>FUFOP</t>
+  </si>
+  <si>
+    <t>UNIR</t>
+  </si>
+  <si>
+    <t>UFRR</t>
+  </si>
+  <si>
+    <t>FUNRei</t>
+  </si>
+  <si>
+    <t>UFS</t>
+  </si>
+  <si>
+    <t>UFV</t>
+  </si>
+  <si>
+    <t>UFMA</t>
+  </si>
+  <si>
+    <t>FURG</t>
+  </si>
+  <si>
+    <t>UFT</t>
+  </si>
+  <si>
+    <t>HFA</t>
+  </si>
+  <si>
+    <t>IBRAM</t>
+  </si>
+  <si>
+    <t>JBRJ</t>
+  </si>
+  <si>
+    <t>IF BAIANO</t>
+  </si>
+  <si>
+    <t>IFG</t>
+  </si>
+  <si>
+    <t>IFMS</t>
+  </si>
+  <si>
+    <t>IFAC</t>
+  </si>
+  <si>
+    <t>IFCE</t>
+  </si>
+  <si>
+    <t>IFSul</t>
+  </si>
+  <si>
+    <t>MinC</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MEC</t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>MMULHERES</t>
+  </si>
+  <si>
+    <t>MDHC</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SUDENE</t>
+  </si>
+  <si>
+    <t>UFBA</t>
+  </si>
+  <si>
+    <t>UFCAT</t>
+  </si>
+  <si>
+    <t>UNIFEI</t>
+  </si>
+  <si>
+    <t>UFJ</t>
+  </si>
+  <si>
+    <t>UFJF</t>
+  </si>
+  <si>
+    <t>UFMG</t>
+  </si>
+  <si>
+    <t>UFR</t>
+  </si>
+  <si>
+    <t>UFSC</t>
+  </si>
+  <si>
+    <t>UFSM</t>
+  </si>
+  <si>
+    <t>UFAPE</t>
+  </si>
+  <si>
+    <t>UFCA</t>
+  </si>
+  <si>
+    <t>UFC</t>
+  </si>
+  <si>
+    <t>UNIRIO</t>
+  </si>
+  <si>
+    <t>UFPA</t>
+  </si>
+  <si>
+    <t>UFRJ</t>
+  </si>
+  <si>
+    <t>UFRN</t>
+  </si>
+  <si>
+    <t>UFRGS</t>
+  </si>
+  <si>
+    <t>UFSB</t>
+  </si>
+  <si>
+    <t>Advocacia-Geral da União</t>
+  </si>
+  <si>
+    <t>Agência Nacional de Águas e Saneamento Básico</t>
+  </si>
+  <si>
+    <t>Autoridade Nacional de Segurança Nuclear</t>
+  </si>
+  <si>
+    <t>Caixa de Construções de Casas para o Pessoal da Marinha</t>
+  </si>
+  <si>
+    <t>Caixa de Financiamento Imobiliário da Aeronáutica</t>
+  </si>
+  <si>
+    <t>Conselho Administrativo de Defesa Econômica</t>
+  </si>
+  <si>
+    <t>Departamento Nacional de Obras Contra as Secas</t>
+  </si>
+  <si>
+    <t>Fundação Cultural Palmares</t>
+  </si>
+  <si>
+    <t>Fundação Habitacional do Exército</t>
+  </si>
+  <si>
+    <t>Fundação Joaquim Nabuco</t>
+  </si>
+  <si>
+    <t>Fundação Nacional de Artes</t>
+  </si>
+  <si>
+    <t>Fundação Nacional de Saúde</t>
+  </si>
+  <si>
+    <t>Fundação Osório</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal da Grande Dourados</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal de Mato Grosso</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal de Ouro Preto</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal de Rondônia</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal de Roraima</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal de São João Del Rei</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal de Sergipe</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal de Viçosa</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal do Maranhão</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal do Rio Grande</t>
+  </si>
+  <si>
+    <t>Fundação Universidade Federal do Tocantins</t>
+  </si>
+  <si>
+    <t>Gabinete de Segurança Institucional da Presidência da República</t>
+  </si>
+  <si>
+    <t>Hospital das Forças Armadas</t>
+  </si>
+  <si>
+    <t>Instituto Brasileiro de Museus</t>
+  </si>
+  <si>
+    <t>Instituto de Pesquisas Jardim Botânico do Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Instituto Federal de Educação, Ciência e Tecnologia de Goiás</t>
+  </si>
+  <si>
+    <t>Instituto Federal de Educação, Ciência e Tecnologia de Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t>Instituto Federal de Educação, Ciência e Tecnologia do Acre</t>
+  </si>
+  <si>
+    <t>Instituto Federal de Educação, Ciência e Tecnologia do Ceará</t>
+  </si>
+  <si>
+    <t>Instituto Federal de Educação, Ciência e Tecnologia Sul-Rio-Grandense</t>
+  </si>
+  <si>
+    <t>Ministério da Cultura</t>
+  </si>
+  <si>
+    <t>Ministério da Defesa</t>
+  </si>
+  <si>
+    <t>Ministério da Educação</t>
+  </si>
+  <si>
+    <t>Ministério da Pesca e Aquicultura</t>
+  </si>
+  <si>
+    <t>Ministério das Mulheres</t>
+  </si>
+  <si>
+    <t>Ministério dos Direitos Humanos e da Cidadania</t>
+  </si>
+  <si>
+    <t>Presidência da República</t>
+  </si>
+  <si>
+    <t>Secretaria de Relações Institucionais da Presidência da República</t>
+  </si>
+  <si>
+    <t>Secretaria-Geral da Presidência da República</t>
+  </si>
+  <si>
+    <t>Superintendência do Desenvolvimento do Nordeste</t>
+  </si>
+  <si>
+    <t>Universidade Federal da Bahia</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Catalão</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Itajubá</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Jataí</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Juiz de Fora</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Minas Gerais</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Rondonópolis</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Santa Catarina</t>
+  </si>
+  <si>
+    <t>Universidade Federal de Santa Maria</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Agreste de Pernambuco</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Cariri</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Ceará</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Estado do Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Pará</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Rio Grande do Norte</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Rio Grande do Sul</t>
+  </si>
+  <si>
+    <t>Universidade Federal do Sul da Bahia</t>
+  </si>
+  <si>
+    <t>GSI-PR</t>
+  </si>
+  <si>
+    <t>SRI-PR</t>
+  </si>
+  <si>
+    <t>agu.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ana.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ansn.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cccpcm.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cfiae.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>cade.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>dnocs.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fcp.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fhe.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fundaj.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>funarte.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>funasa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fosorio.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufgd.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufmt.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>fufop.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unir.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufrr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>funrei.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufs.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufv.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufma.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>furg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>uft.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>gsipr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>hfa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ibram.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>jbrj.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifms.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifac.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifce.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ifsul.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>minc.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>md.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mec.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mpa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mmulheres.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>mdhc.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>pr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>sripr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>sg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>sudene.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufba.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufcat.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unifei.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufj.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufjf.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufmg.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufr.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufsc.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufsm.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufape.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufca.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufc.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>unirio.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufpa.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufrj.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufrn.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufrgs.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ufsb.treina.pgdpetrvs.gestao.gov.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1411,20 +1960,23 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1435,25 +1987,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1471,61 +2010,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1861,29 +2377,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CD5A86-2183-423B-979E-F68046DDCD17}">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="84.85546875" customWidth="1"/>
-    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="11" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>147</v>
+      <c r="A1" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>295</v>
+        <v>567</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>146</v>
@@ -1891,13 +2408,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>146</v>
@@ -1905,13 +2422,13 @@
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>149</v>
+        <v>505</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>297</v>
+        <v>568</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>146</v>
@@ -1919,13 +2436,13 @@
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>146</v>
@@ -1933,13 +2450,13 @@
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>146</v>
@@ -1947,13 +2464,13 @@
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>146</v>
@@ -1961,13 +2478,13 @@
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>146</v>
@@ -1975,13 +2492,13 @@
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>146</v>
@@ -1989,13 +2506,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>146</v>
@@ -2003,13 +2520,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>146</v>
@@ -2017,13 +2534,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>146</v>
@@ -2031,13 +2548,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>146</v>
@@ -2045,13 +2562,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>146</v>
@@ -2059,13 +2576,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>146</v>
@@ -2073,13 +2590,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>445</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>161</v>
+        <v>506</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>309</v>
+        <v>569</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>146</v>
@@ -2087,13 +2604,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>146</v>
@@ -2101,13 +2618,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>349</v>
+        <v>446</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>346</v>
+        <v>570</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>146</v>
@@ -2115,13 +2632,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>447</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>164</v>
+        <v>508</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>311</v>
+        <v>571</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>146</v>
@@ -2129,13 +2646,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>146</v>
@@ -2143,13 +2660,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>146</v>
@@ -2157,13 +2674,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>146</v>
@@ -2171,13 +2688,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>146</v>
@@ -2185,13 +2702,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>146</v>
@@ -2199,13 +2716,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>146</v>
@@ -2213,13 +2730,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>449</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>171</v>
+        <v>509</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>318</v>
+        <v>572</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>146</v>
@@ -2227,13 +2744,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>146</v>
@@ -2241,13 +2758,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>146</v>
@@ -2255,13 +2772,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>146</v>
@@ -2269,13 +2786,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>450</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>175</v>
+        <v>510</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>322</v>
+        <v>573</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>146</v>
@@ -2283,13 +2800,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>146</v>
@@ -2297,13 +2814,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>146</v>
@@ -2311,13 +2828,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>146</v>
@@ -2325,13 +2842,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>146</v>
@@ -2339,13 +2856,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>32</v>
+        <v>451</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>180</v>
+        <v>511</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>327</v>
+        <v>574</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>146</v>
@@ -2353,13 +2870,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>146</v>
@@ -2367,13 +2884,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>452</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>182</v>
+        <v>512</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>329</v>
+        <v>575</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>146</v>
@@ -2381,13 +2898,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>146</v>
@@ -2395,13 +2912,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>453</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>184</v>
+        <v>513</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>331</v>
+        <v>576</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>146</v>
@@ -2409,13 +2926,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>146</v>
@@ -2423,27 +2940,27 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>454</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>186</v>
+        <v>514</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>333</v>
+        <v>577</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>187</v>
+      <c r="A41" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>515</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>334</v>
+        <v>578</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>146</v>
@@ -2451,13 +2968,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>146</v>
@@ -2465,13 +2982,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>189</v>
+        <v>516</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>336</v>
+        <v>579</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>146</v>
@@ -2479,13 +2996,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>146</v>
@@ -2493,13 +3010,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>146</v>
@@ -2507,13 +3024,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>146</v>
@@ -2521,13 +3038,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>45</v>
+        <v>457</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>193</v>
+        <v>517</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>146</v>
@@ -2535,13 +3052,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>146</v>
@@ -2549,13 +3066,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>348</v>
+        <v>458</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>195</v>
+        <v>518</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>347</v>
+        <v>581</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>146</v>
@@ -2563,13 +3080,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>146</v>
@@ -2577,13 +3094,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>48</v>
+        <v>459</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>197</v>
+        <v>519</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>343</v>
+        <v>582</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>146</v>
@@ -2591,13 +3108,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>146</v>
@@ -2605,13 +3122,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>50</v>
+        <v>460</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>199</v>
+        <v>520</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>345</v>
+        <v>583</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>146</v>
@@ -2619,13 +3136,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>51</v>
+        <v>461</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>200</v>
+        <v>521</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>350</v>
+        <v>584</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>146</v>
@@ -2633,13 +3150,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>146</v>
@@ -2647,13 +3164,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>53</v>
+        <v>462</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>202</v>
+        <v>522</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>352</v>
+        <v>585</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>146</v>
@@ -2661,13 +3178,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>54</v>
+        <v>463</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>353</v>
+        <v>586</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>146</v>
@@ -2675,13 +3192,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>55</v>
+        <v>464</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>204</v>
+        <v>524</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>354</v>
+        <v>587</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>146</v>
@@ -2689,13 +3206,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>146</v>
@@ -2703,13 +3220,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>146</v>
@@ -2717,13 +3234,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>146</v>
@@ -2731,13 +3248,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>59</v>
+        <v>465</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>208</v>
+        <v>525</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>358</v>
+        <v>588</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>146</v>
@@ -2745,13 +3262,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>146</v>
@@ -2759,13 +3276,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>146</v>
@@ -2773,13 +3290,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>62</v>
+        <v>466</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>211</v>
+        <v>526</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>361</v>
+        <v>589</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>146</v>
@@ -2787,13 +3304,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>63</v>
+        <v>467</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>212</v>
+        <v>527</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>362</v>
+        <v>590</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>146</v>
@@ -2801,13 +3318,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>146</v>
@@ -2815,13 +3332,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>146</v>
@@ -2829,13 +3346,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>66</v>
+        <v>565</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>215</v>
+        <v>528</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>365</v>
+        <v>591</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>146</v>
@@ -2843,13 +3360,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>67</v>
+        <v>468</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>216</v>
+        <v>529</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>366</v>
+        <v>592</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>146</v>
@@ -2857,13 +3374,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>68</v>
+        <v>469</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>217</v>
+        <v>530</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>367</v>
+        <v>593</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>146</v>
@@ -2871,13 +3388,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>146</v>
@@ -2885,13 +3402,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>369</v>
+        <v>339</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>146</v>
@@ -2899,13 +3416,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>146</v>
@@ -2913,13 +3430,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>72</v>
+        <v>470</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>221</v>
+        <v>531</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>371</v>
+        <v>594</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>146</v>
@@ -2927,13 +3444,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>146</v>
@@ -2941,13 +3458,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>74</v>
+        <v>471</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>146</v>
@@ -2955,13 +3472,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>146</v>
@@ -2969,13 +3486,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>146</v>
@@ -2983,13 +3500,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>146</v>
@@ -2997,13 +3514,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>146</v>
@@ -3011,13 +3528,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>146</v>
@@ -3025,13 +3542,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>229</v>
+        <v>532</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>379</v>
+        <v>595</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>146</v>
@@ -3039,13 +3556,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>146</v>
@@ -3053,13 +3570,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>231</v>
+        <v>533</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>381</v>
+        <v>596</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>146</v>
@@ -3067,13 +3584,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>146</v>
@@ -3081,13 +3598,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>146</v>
@@ -3095,13 +3612,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>146</v>
@@ -3109,13 +3626,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>146</v>
@@ -3123,13 +3640,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>146</v>
@@ -3137,13 +3654,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>146</v>
@@ -3151,13 +3668,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>146</v>
@@ -3165,13 +3682,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>90</v>
+        <v>474</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>239</v>
+        <v>534</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>389</v>
+        <v>597</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>146</v>
@@ -3179,13 +3696,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>146</v>
@@ -3193,13 +3710,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>146</v>
@@ -3207,13 +3724,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>242</v>
+        <v>535</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>392</v>
+        <v>598</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>146</v>
@@ -3221,13 +3738,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>146</v>
@@ -3235,13 +3752,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>146</v>
@@ -3249,13 +3766,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>146</v>
@@ -3263,13 +3780,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>146</v>
@@ -3277,13 +3794,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>146</v>
@@ -3291,13 +3808,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>146</v>
@@ -3305,13 +3822,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>146</v>
@@ -3319,13 +3836,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>146</v>
@@ -3333,13 +3850,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>146</v>
@@ -3347,13 +3864,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>146</v>
@@ -3361,13 +3878,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>146</v>
@@ -3375,13 +3892,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>146</v>
@@ -3389,13 +3906,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>146</v>
@@ -3403,13 +3920,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>146</v>
@@ -3417,13 +3934,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>146</v>
@@ -3431,13 +3948,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>146</v>
@@ -3445,13 +3962,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>146</v>
@@ -3459,13 +3976,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>111</v>
+        <v>476</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>260</v>
+        <v>536</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>410</v>
+        <v>599</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>146</v>
@@ -3473,13 +3990,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>146</v>
@@ -3487,13 +4004,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>146</v>
@@ -3501,13 +4018,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>146</v>
@@ -3515,13 +4032,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>146</v>
@@ -3529,13 +4046,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>146</v>
@@ -3543,13 +4060,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>146</v>
@@ -3557,13 +4074,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>146</v>
@@ -3571,13 +4088,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>146</v>
@@ -3585,13 +4102,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>120</v>
+        <v>477</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>269</v>
+        <v>537</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>419</v>
+        <v>600</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>146</v>
@@ -3599,13 +4116,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>121</v>
+        <v>478</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>270</v>
+        <v>538</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>420</v>
+        <v>601</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>146</v>
@@ -3613,13 +4130,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>122</v>
+        <v>479</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>271</v>
+        <v>539</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>421</v>
+        <v>602</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>146</v>
@@ -3627,13 +4144,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>146</v>
@@ -3641,13 +4158,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>146</v>
@@ -3655,13 +4172,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>146</v>
@@ -3669,13 +4186,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>146</v>
@@ -3683,13 +4200,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>146</v>
@@ -3697,13 +4214,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>128</v>
+        <v>480</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>277</v>
+        <v>540</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>427</v>
+        <v>603</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>146</v>
@@ -3711,13 +4228,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>146</v>
@@ -3725,13 +4242,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>146</v>
@@ -3739,13 +4256,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>146</v>
@@ -3753,13 +4270,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>146</v>
@@ -3767,13 +4284,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>282</v>
+        <v>541</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>432</v>
+        <v>604</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>146</v>
@@ -3781,13 +4298,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>146</v>
@@ -3795,13 +4312,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>146</v>
@@ -3809,13 +4326,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>146</v>
@@ -3823,13 +4340,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>146</v>
@@ -3837,13 +4354,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>146</v>
@@ -3851,13 +4368,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>146</v>
@@ -3865,13 +4382,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>146</v>
@@ -3879,13 +4396,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>146</v>
@@ -3893,63 +4410,918 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B206" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C206" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C207" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C208" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C146" s="10" t="s">
+      <c r="D208" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C209" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="D148" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3965,889 +5337,889 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="e">
+      <c r="A1" s="3" t="e">
         <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="e">
+      <c r="A2" s="3" t="e">
         <f t="shared" ref="A2" si="0">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="e">
+      <c r="A3" s="3" t="e">
         <f t="shared" ref="A3" si="1">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="e">
+      <c r="A4" s="3" t="e">
         <f t="shared" ref="A4" si="2">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="e">
+      <c r="A5" s="3" t="e">
         <f t="shared" ref="A5" si="3">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="e">
+      <c r="A6" s="3" t="e">
         <f t="shared" ref="A6" si="4">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="e">
+      <c r="A7" s="3" t="e">
         <f t="shared" ref="A7" si="5">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="e">
+      <c r="A8" s="3" t="e">
         <f t="shared" ref="A8" si="6">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="e">
+      <c r="A9" s="3" t="e">
         <f t="shared" ref="A9" si="7">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="e">
+      <c r="A10" s="3" t="e">
         <f t="shared" ref="A10" si="8">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="e">
+      <c r="A11" s="3" t="e">
         <f t="shared" ref="A11" si="9">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="e">
+      <c r="A12" s="3" t="e">
         <f t="shared" ref="A12" si="10">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="e">
+      <c r="A13" s="3" t="e">
         <f t="shared" ref="A13" si="11">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="e">
+      <c r="A14" s="3" t="e">
         <f t="shared" ref="A14" si="12">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="e">
+      <c r="A15" s="3" t="e">
         <f t="shared" ref="A15" si="13">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="e">
+      <c r="A16" s="3" t="e">
         <f t="shared" ref="A16" si="14">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="e">
+      <c r="A17" s="3" t="e">
         <f t="shared" ref="A17" si="15">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="e">
+      <c r="A18" s="3" t="e">
         <f t="shared" ref="A18" si="16">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="e">
+      <c r="A19" s="3" t="e">
         <f t="shared" ref="A19" si="17">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="e">
+      <c r="A20" s="3" t="e">
         <f t="shared" ref="A20" si="18">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="e">
+      <c r="A21" s="3" t="e">
         <f t="shared" ref="A21" si="19">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="e">
+      <c r="A22" s="3" t="e">
         <f t="shared" ref="A22" si="20">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="e">
+      <c r="A23" s="3" t="e">
         <f t="shared" ref="A23" si="21">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="e">
+      <c r="A24" s="3" t="e">
         <f t="shared" ref="A24" si="22">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="e">
+      <c r="A25" s="3" t="e">
         <f t="shared" ref="A25" si="23">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="e">
+      <c r="A26" s="3" t="e">
         <f t="shared" ref="A26" si="24">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="e">
+      <c r="A27" s="3" t="e">
         <f t="shared" ref="A27" si="25">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="e">
+      <c r="A28" s="3" t="e">
         <f t="shared" ref="A28" si="26">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="e">
+      <c r="A29" s="3" t="e">
         <f t="shared" ref="A29" si="27">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="e">
+      <c r="A30" s="3" t="e">
         <f t="shared" ref="A30" si="28">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="e">
+      <c r="A31" s="3" t="e">
         <f t="shared" ref="A31" si="29">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="e">
+      <c r="A32" s="3" t="e">
         <f t="shared" ref="A32" si="30">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="e">
+      <c r="A33" s="3" t="e">
         <f t="shared" ref="A33" si="31">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="e">
+      <c r="A34" s="3" t="e">
         <f t="shared" ref="A34" si="32">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="e">
+      <c r="A35" s="3" t="e">
         <f t="shared" ref="A35" si="33">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="e">
+      <c r="A36" s="3" t="e">
         <f t="shared" ref="A36" si="34">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="e">
+      <c r="A37" s="3" t="e">
         <f t="shared" ref="A37" si="35">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="e">
+      <c r="A38" s="3" t="e">
         <f t="shared" ref="A38" si="36">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="e">
+      <c r="A39" s="3" t="e">
         <f t="shared" ref="A39" si="37">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="e">
+      <c r="A40" s="3" t="e">
         <f t="shared" ref="A40" si="38">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="e">
+      <c r="A41" s="3" t="e">
         <f t="shared" ref="A41" si="39">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="e">
+      <c r="A42" s="3" t="e">
         <f t="shared" ref="A42" si="40">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="e">
+      <c r="A43" s="3" t="e">
         <f t="shared" ref="A43" si="41">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="e">
+      <c r="A44" s="3" t="e">
         <f t="shared" ref="A44" si="42">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="e">
+      <c r="A45" s="3" t="e">
         <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="e">
+      <c r="A46" s="3" t="e">
         <f t="shared" ref="A46" si="43">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="e">
+      <c r="A47" s="3" t="e">
         <f t="shared" ref="A47" si="44">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="e">
+      <c r="A48" s="3" t="e">
         <f t="shared" ref="A48" si="45">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="e">
+      <c r="A49" s="3" t="e">
         <f t="shared" ref="A49" si="46">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="e">
+      <c r="A50" s="3" t="e">
         <f t="shared" ref="A50" si="47">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="e">
+      <c r="A51" s="3" t="e">
         <f t="shared" ref="A51" si="48">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="e">
+      <c r="A52" s="3" t="e">
         <f t="shared" ref="A52" si="49">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="e">
+      <c r="A53" s="3" t="e">
         <f t="shared" ref="A53" si="50">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="e">
+      <c r="A54" s="3" t="e">
         <f t="shared" ref="A54" si="51">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="e">
+      <c r="A55" s="3" t="e">
         <f t="shared" ref="A55" si="52">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="e">
+      <c r="A56" s="3" t="e">
         <f t="shared" ref="A56" si="53">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="e">
+      <c r="A57" s="3" t="e">
         <f t="shared" ref="A57" si="54">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="e">
+      <c r="A58" s="3" t="e">
         <f t="shared" ref="A58" si="55">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="e">
+      <c r="A59" s="3" t="e">
         <f t="shared" ref="A59" si="56">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="e">
+      <c r="A60" s="3" t="e">
         <f t="shared" ref="A60" si="57">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="e">
+      <c r="A61" s="3" t="e">
         <f t="shared" ref="A61" si="58">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="e">
+      <c r="A62" s="3" t="e">
         <f t="shared" ref="A62" si="59">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="e">
+      <c r="A63" s="3" t="e">
         <f t="shared" ref="A63" si="60">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="e">
+      <c r="A64" s="3" t="e">
         <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="e">
+      <c r="A65" s="3" t="e">
         <f t="shared" ref="A65" si="61">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="e">
+      <c r="A66" s="3" t="e">
         <f t="shared" ref="A66" si="62">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="e">
+      <c r="A67" s="3" t="e">
         <f t="shared" ref="A67" si="63">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="e">
+      <c r="A68" s="3" t="e">
         <f t="shared" ref="A68" si="64">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="e">
+      <c r="A69" s="3" t="e">
         <f t="shared" ref="A69" si="65">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="e">
+      <c r="A70" s="3" t="e">
         <f t="shared" ref="A70" si="66">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="e">
+      <c r="A71" s="3" t="e">
         <f t="shared" ref="A71" si="67">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="e">
+      <c r="A72" s="3" t="e">
         <f t="shared" ref="A72" si="68">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="e">
+      <c r="A73" s="3" t="e">
         <f t="shared" ref="A73" si="69">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="e">
+      <c r="A74" s="3" t="e">
         <f t="shared" ref="A74" si="70">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="e">
+      <c r="A75" s="3" t="e">
         <f t="shared" ref="A75" si="71">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="e">
+      <c r="A76" s="3" t="e">
         <f t="shared" ref="A76" si="72">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="e">
+      <c r="A77" s="3" t="e">
         <f t="shared" ref="A77" si="73">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="e">
+      <c r="A78" s="3" t="e">
         <f t="shared" ref="A78" si="74">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="e">
+      <c r="A79" s="3" t="e">
         <f t="shared" ref="A79" si="75">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="e">
+      <c r="A80" s="3" t="e">
         <f t="shared" ref="A80" si="76">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="e">
+      <c r="A81" s="3" t="e">
         <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="e">
+      <c r="A82" s="3" t="e">
         <f t="shared" ref="A82" si="77">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="e">
+      <c r="A83" s="3" t="e">
         <f t="shared" ref="A83" si="78">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="e">
+      <c r="A84" s="3" t="e">
         <f t="shared" ref="A84" si="79">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="e">
+      <c r="A85" s="3" t="e">
         <f t="shared" ref="A85" si="80">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="e">
+      <c r="A86" s="3" t="e">
         <f t="shared" ref="A86" si="81">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="e">
+      <c r="A87" s="3" t="e">
         <f t="shared" ref="A87" si="82">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="e">
+      <c r="A88" s="3" t="e">
         <f t="shared" ref="A88" si="83">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="e">
+      <c r="A89" s="3" t="e">
         <f t="shared" ref="A89" si="84">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="e">
+      <c r="A90" s="3" t="e">
         <f t="shared" ref="A90" si="85">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="e">
+      <c r="A91" s="3" t="e">
         <f t="shared" ref="A91" si="86">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="e">
+      <c r="A92" s="3" t="e">
         <f t="shared" ref="A92" si="87">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="e">
+      <c r="A93" s="3" t="e">
         <f t="shared" ref="A93" si="88">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="e">
+      <c r="A94" s="3" t="e">
         <f t="shared" ref="A94" si="89">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="e">
+      <c r="A95" s="3" t="e">
         <f t="shared" ref="A95" si="90">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="e">
+      <c r="A96" s="3" t="e">
         <f t="shared" ref="A96" si="91">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="e">
+      <c r="A97" s="3" t="e">
         <f t="shared" ref="A97" si="92">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="e">
+      <c r="A98" s="3" t="e">
         <f t="shared" ref="A98" si="93">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="e">
+      <c r="A99" s="3" t="e">
         <f t="shared" ref="A99" si="94">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="e">
+      <c r="A100" s="3" t="e">
         <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="e">
+      <c r="A101" s="3" t="e">
         <f t="shared" ref="A101" si="95">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="9" t="e">
+      <c r="A102" s="3" t="e">
         <f t="shared" ref="A102" si="96">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="e">
+      <c r="A103" s="3" t="e">
         <f t="shared" ref="A103" si="97">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="9" t="e">
+      <c r="A104" s="3" t="e">
         <f t="shared" ref="A104" si="98">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="e">
+      <c r="A105" s="3" t="e">
         <f t="shared" ref="A105" si="99">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="e">
+      <c r="A106" s="3" t="e">
         <f t="shared" ref="A106" si="100">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="e">
+      <c r="A107" s="3" t="e">
         <f t="shared" ref="A107" si="101">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="e">
+      <c r="A108" s="3" t="e">
         <f t="shared" ref="A108" si="102">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="e">
+      <c r="A109" s="3" t="e">
         <f t="shared" ref="A109" si="103">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="e">
+      <c r="A110" s="3" t="e">
         <f t="shared" ref="A110" si="104">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="e">
+      <c r="A111" s="3" t="e">
         <f t="shared" ref="A111" si="105">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="e">
+      <c r="A112" s="3" t="e">
         <f t="shared" ref="A112" si="106">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="e">
+      <c r="A113" s="3" t="e">
         <f t="shared" ref="A113" si="107">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="e">
+      <c r="A114" s="3" t="e">
         <f t="shared" ref="A114" si="108">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="e">
+      <c r="A115" s="3" t="e">
         <f t="shared" ref="A115" si="109">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="e">
+      <c r="A116" s="3" t="e">
         <f t="shared" ref="A116" si="110">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="e">
+      <c r="A117" s="3" t="e">
         <f t="shared" ref="A117" si="111">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="e">
+      <c r="A118" s="3" t="e">
         <f t="shared" ref="A118" si="112">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="e">
+      <c r="A119" s="3" t="e">
         <f t="shared" ref="A119" si="113">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="e">
+      <c r="A120" s="3" t="e">
         <f t="shared" ref="A120" si="114">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="e">
+      <c r="A121" s="3" t="e">
         <f t="shared" ref="A121" si="115">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="e">
+      <c r="A122" s="3" t="e">
         <f t="shared" ref="A122" si="116">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="e">
+      <c r="A123" s="3" t="e">
         <f t="shared" ref="A123" si="117">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="e">
+      <c r="A124" s="3" t="e">
         <f t="shared" ref="A124" si="118">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="e">
+      <c r="A125" s="3" t="e">
         <f t="shared" ref="A125" si="119">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="e">
+      <c r="A126" s="3" t="e">
         <f t="shared" ref="A126" si="120">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="e">
+      <c r="A127" s="3" t="e">
         <f t="shared" ref="A127" si="121">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="e">
+      <c r="A128" s="3" t="e">
         <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="e">
+      <c r="A129" s="3" t="e">
         <f t="shared" ref="A129" si="122">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="e">
+      <c r="A130" s="3" t="e">
         <f t="shared" ref="A130" si="123">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="e">
+      <c r="A131" s="3" t="e">
         <f t="shared" ref="A131" si="124">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="e">
+      <c r="A132" s="3" t="e">
         <f t="shared" ref="A132" si="125">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="e">
+      <c r="A133" s="3" t="e">
         <f t="shared" ref="A133" si="126">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="e">
+      <c r="A134" s="3" t="e">
         <f t="shared" ref="A134" si="127">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="e">
+      <c r="A135" s="3" t="e">
         <f t="shared" ref="A135" si="128">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="e">
+      <c r="A136" s="3" t="e">
         <f t="shared" ref="A136" si="129">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="e">
+      <c r="A137" s="3" t="e">
         <f t="shared" ref="A137" si="130">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="e">
+      <c r="A138" s="3" t="e">
         <f t="shared" ref="A138" si="131">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="e">
+      <c r="A139" s="3" t="e">
         <f t="shared" ref="A139" si="132">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="9" t="e">
+      <c r="A140" s="3" t="e">
         <f t="shared" ref="A140" si="133">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="e">
+      <c r="A141" s="3" t="e">
         <f t="shared" ref="A141" si="134">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="e">
+      <c r="A142" s="3" t="e">
         <f t="shared" ref="A142" si="135">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="e">
+      <c r="A143" s="3" t="e">
         <f t="shared" ref="A143" si="136">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="e">
+      <c r="A144" s="3" t="e">
         <f t="shared" ref="A144" si="137">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="e">
+      <c r="A145" s="3" t="e">
         <f t="shared" ref="A145" si="138">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="e">
+      <c r="A146" s="3" t="e">
         <f t="shared" ref="A146" si="139">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="e">
+      <c r="A147" s="3" t="e">
         <f t="shared" ref="A147" si="140">SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="9" t="e">
+      <c r="A148" s="3" t="e">
         <f>SUBSTITUTE(LOWER(#REF!),"-","") &amp; ".treina.pgdpetrvs.gestao.gov.br"</f>
         <v>#REF!</v>
       </c>

--- a/back-end/public/tenants.xlsx
+++ b/back-end/public/tenants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\geisimar\Petrvs\back-end\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63FCA8E-689F-403F-9A39-E823C08F0899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C27D56-CF5C-4C3E-AB25-0E3C18AEBB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F84DAE95-C676-4929-A42D-AA0662A4D682}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="628">
   <si>
     <t>AEB</t>
   </si>
@@ -272,9 +272,6 @@
     <t>IFF</t>
   </si>
   <si>
-    <t>IF-GOIANO</t>
-  </si>
-  <si>
     <t>INPI</t>
   </si>
   <si>
@@ -1376,9 +1373,6 @@
     <t>CFIAE</t>
   </si>
   <si>
-    <t>CP II</t>
-  </si>
-  <si>
     <t>CADE</t>
   </si>
   <si>
@@ -1730,9 +1724,6 @@
     <t>GSI-PR</t>
   </si>
   <si>
-    <t>SRI-PR</t>
-  </si>
-  <si>
     <t>agu.treina.pgdpetrvs.gestao.gov.br</t>
   </si>
   <si>
@@ -1920,6 +1911,15 @@
   </si>
   <si>
     <t>senappen.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>CPII</t>
+  </si>
+  <si>
+    <t>IFGOIANO</t>
+  </si>
+  <si>
+    <t>SRIPR</t>
   </si>
 </sst>
 </file>
@@ -2376,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CD5A86-2183-423B-979E-F68046DDCD17}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,16 +2391,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,27 +2408,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2436,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2450,13 +2450,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2464,13 +2464,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2478,13 +2478,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2492,13 +2492,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,13 +2506,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,13 +2520,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,13 +2534,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2548,13 +2548,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2562,13 +2562,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,27 +2576,27 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2604,41 +2604,41 @@
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,13 +2646,13 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,13 +2660,13 @@
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2674,27 +2674,27 @@
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>446</v>
+        <v>625</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,13 +2702,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,27 +2716,27 @@
         <v>17</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2744,13 +2744,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2758,13 +2758,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,27 +2772,27 @@
         <v>20</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2800,13 +2800,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2814,13 +2814,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,13 +2828,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,27 +2842,27 @@
         <v>24</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2870,27 +2870,27 @@
         <v>25</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,27 +2898,27 @@
         <v>26</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2926,41 +2926,41 @@
         <v>27</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2968,27 +2968,27 @@
         <v>28</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,13 +2996,13 @@
         <v>29</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3010,13 +3010,13 @@
         <v>30</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3024,27 +3024,27 @@
         <v>31</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3052,27 +3052,27 @@
         <v>32</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,27 +3080,27 @@
         <v>33</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3108,41 +3108,41 @@
         <v>34</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3150,55 +3150,55 @@
         <v>35</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3206,13 +3206,13 @@
         <v>36</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3220,13 +3220,13 @@
         <v>37</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3234,27 +3234,27 @@
         <v>38</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3262,13 +3262,13 @@
         <v>39</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,41 +3276,41 @@
         <v>40</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3318,13 +3318,13 @@
         <v>41</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3332,55 +3332,55 @@
         <v>42</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3388,13 +3388,13 @@
         <v>43</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3402,13 +3402,13 @@
         <v>44</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3416,27 +3416,27 @@
         <v>45</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3444,27 +3444,27 @@
         <v>46</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3472,13 +3472,13 @@
         <v>47</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3486,13 +3486,13 @@
         <v>48</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3500,13 +3500,13 @@
         <v>49</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3514,13 +3514,13 @@
         <v>50</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3528,27 +3528,27 @@
         <v>51</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3556,27 +3556,27 @@
         <v>52</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3584,13 +3584,13 @@
         <v>53</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3598,13 +3598,13 @@
         <v>54</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3612,13 +3612,13 @@
         <v>55</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3626,13 +3626,13 @@
         <v>56</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3640,13 +3640,13 @@
         <v>57</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3654,13 +3654,13 @@
         <v>58</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3668,27 +3668,27 @@
         <v>59</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3696,13 +3696,13 @@
         <v>60</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3710,27 +3710,27 @@
         <v>61</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3738,13 +3738,13 @@
         <v>62</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3752,13 +3752,13 @@
         <v>63</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3766,13 +3766,13 @@
         <v>64</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3780,13 +3780,13 @@
         <v>65</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3794,13 +3794,13 @@
         <v>66</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3808,13 +3808,13 @@
         <v>67</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3822,13 +3822,13 @@
         <v>68</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3836,13 +3836,13 @@
         <v>69</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3850,13 +3850,13 @@
         <v>70</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3864,13 +3864,13 @@
         <v>71</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3878,13 +3878,13 @@
         <v>72</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3892,13 +3892,13 @@
         <v>73</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3906,13 +3906,13 @@
         <v>74</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3920,13 +3920,13 @@
         <v>75</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3934,13 +3934,13 @@
         <v>76</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3948,1375 +3948,1377 @@
         <v>77</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>78</v>
+        <v>626</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C209" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="2"/>
+      <c r="B210" s="2" t="s">
+        <v>292</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/back-end/public/tenants.xlsx
+++ b/back-end/public/tenants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\geisimar\Petrvs\back-end\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C27D56-CF5C-4C3E-AB25-0E3C18AEBB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09692D30-FE86-4B2C-AD35-A838A9BBC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F84DAE95-C676-4929-A42D-AA0662A4D682}"/>
   </bookViews>
@@ -1439,9 +1439,6 @@
     <t>JBRJ</t>
   </si>
   <si>
-    <t>IF BAIANO</t>
-  </si>
-  <si>
     <t>IFG</t>
   </si>
   <si>
@@ -1920,6 +1917,9 @@
   </si>
   <si>
     <t>SRIPR</t>
+  </si>
+  <si>
+    <t>IFBAIANO</t>
   </si>
 </sst>
 </file>
@@ -2376,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CD5A86-2183-423B-979E-F68046DDCD17}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,10 +2394,10 @@
         <v>440</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>144</v>
@@ -2422,10 +2422,10 @@
         <v>441</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>144</v>
@@ -2590,10 +2590,10 @@
         <v>442</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>144</v>
@@ -2618,10 +2618,10 @@
         <v>443</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>144</v>
@@ -2632,10 +2632,10 @@
         <v>444</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>144</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>161</v>
@@ -2730,10 +2730,10 @@
         <v>445</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>144</v>
@@ -2786,10 +2786,10 @@
         <v>446</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>144</v>
@@ -2856,10 +2856,10 @@
         <v>447</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>144</v>
@@ -2884,10 +2884,10 @@
         <v>448</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>144</v>
@@ -2912,10 +2912,10 @@
         <v>449</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>144</v>
@@ -2940,10 +2940,10 @@
         <v>450</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>144</v>
@@ -2954,10 +2954,10 @@
         <v>451</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>144</v>
@@ -2982,10 +2982,10 @@
         <v>452</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>144</v>
@@ -3038,10 +3038,10 @@
         <v>453</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>144</v>
@@ -3066,10 +3066,10 @@
         <v>454</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>144</v>
@@ -3094,10 +3094,10 @@
         <v>455</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>144</v>
@@ -3122,10 +3122,10 @@
         <v>456</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>144</v>
@@ -3136,10 +3136,10 @@
         <v>457</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>144</v>
@@ -3164,10 +3164,10 @@
         <v>458</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>144</v>
@@ -3178,10 +3178,10 @@
         <v>459</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>144</v>
@@ -3192,10 +3192,10 @@
         <v>460</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>144</v>
@@ -3248,10 +3248,10 @@
         <v>461</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>144</v>
@@ -3290,10 +3290,10 @@
         <v>462</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>144</v>
@@ -3304,10 +3304,10 @@
         <v>463</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>144</v>
@@ -3343,13 +3343,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>144</v>
@@ -3360,10 +3360,10 @@
         <v>464</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>144</v>
@@ -3374,10 +3374,10 @@
         <v>465</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>144</v>
@@ -3430,10 +3430,10 @@
         <v>466</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>144</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>467</v>
+        <v>627</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>193</v>
@@ -3539,13 +3539,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>144</v>
@@ -3567,13 +3567,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>144</v>
@@ -3679,13 +3679,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>144</v>
@@ -3721,13 +3721,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>144</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>225</v>
@@ -3973,13 +3973,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>144</v>
@@ -4099,13 +4099,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>144</v>
@@ -4113,13 +4113,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>144</v>
@@ -4127,13 +4127,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>144</v>
@@ -4211,13 +4211,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>144</v>
@@ -4281,13 +4281,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>144</v>
@@ -4463,13 +4463,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>144</v>
@@ -4505,13 +4505,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>144</v>
@@ -4519,13 +4519,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>144</v>
@@ -4533,13 +4533,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>144</v>
@@ -4603,13 +4603,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>144</v>
@@ -4645,13 +4645,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>144</v>
@@ -4743,13 +4743,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>144</v>
@@ -4771,13 +4771,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>144</v>
@@ -4785,13 +4785,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>144</v>
@@ -4799,13 +4799,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>144</v>
@@ -4827,13 +4827,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>144</v>
@@ -4855,13 +4855,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>144</v>
@@ -4869,13 +4869,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>144</v>
@@ -4883,13 +4883,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>144</v>
@@ -4925,13 +4925,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>144</v>
@@ -4939,13 +4939,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>144</v>
@@ -4953,13 +4953,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C184" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>144</v>
@@ -4995,13 +4995,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>144</v>
@@ -5051,13 +5051,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>144</v>
@@ -5093,13 +5093,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C194" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>144</v>
@@ -5107,13 +5107,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>144</v>
@@ -5121,13 +5121,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C196" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>144</v>
@@ -5135,13 +5135,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>144</v>
@@ -5275,13 +5275,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>290</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>144</v>

--- a/back-end/public/tenants.xlsx
+++ b/back-end/public/tenants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\geisimar\Petrvs\back-end\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09692D30-FE86-4B2C-AD35-A838A9BBC22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA4BE78-6633-491D-B9F5-900444337D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F84DAE95-C676-4929-A42D-AA0662A4D682}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="658">
   <si>
     <t>AEB</t>
   </si>
@@ -1920,6 +1920,96 @@
   </si>
   <si>
     <t>IFBAIANO</t>
+  </si>
+  <si>
+    <t>Agência Brasileira de Inteligência</t>
+  </si>
+  <si>
+    <t>ABIN</t>
+  </si>
+  <si>
+    <t>abin.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>Polícia Federal</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>pf.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>Treina um</t>
+  </si>
+  <si>
+    <t>Treina Dois</t>
+  </si>
+  <si>
+    <t>Treina Três</t>
+  </si>
+  <si>
+    <t>Treina Quatro</t>
+  </si>
+  <si>
+    <t>Treina Cinco</t>
+  </si>
+  <si>
+    <t>Treina Seis</t>
+  </si>
+  <si>
+    <t>Treina Sete</t>
+  </si>
+  <si>
+    <t>Treina Oito</t>
+  </si>
+  <si>
+    <t>TUM</t>
+  </si>
+  <si>
+    <t>TDOIS</t>
+  </si>
+  <si>
+    <t>TQUATRO</t>
+  </si>
+  <si>
+    <t>TCINCO</t>
+  </si>
+  <si>
+    <t>TSEIS</t>
+  </si>
+  <si>
+    <t>TSETE</t>
+  </si>
+  <si>
+    <t>TOITO</t>
+  </si>
+  <si>
+    <t>TTRES</t>
+  </si>
+  <si>
+    <t>tum.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>tdois.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>ttres.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>tquatro.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>tcinco.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>tseis.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>tsete.treina.pgdpetrvs.gestao.gov.br</t>
+  </si>
+  <si>
+    <t>toito.treina.pgdpetrvs.gestao.gov.br</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +2076,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2009,12 +2099,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2038,6 +2139,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2374,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CD5A86-2183-423B-979E-F68046DDCD17}">
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D211" sqref="D211:D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5316,8 +5420,143 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B210" s="2" t="s">
-        <v>292</v>
+      <c r="A210" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="B210" t="s">
+        <v>628</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B211" t="s">
+        <v>631</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="B212" t="s">
+        <v>634</v>
+      </c>
+      <c r="C212" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="B213" t="s">
+        <v>635</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>649</v>
+      </c>
+      <c r="B214" t="s">
+        <v>636</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B215" t="s">
+        <v>637</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="B216" t="s">
+        <v>638</v>
+      </c>
+      <c r="C216" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B217" t="s">
+        <v>639</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B218" t="s">
+        <v>640</v>
+      </c>
+      <c r="C218" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="B219" t="s">
+        <v>641</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
